--- a/biology/Botanique/Dolique/Dolique.xlsx
+++ b/biology/Botanique/Dolique/Dolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les doliques sont des légumineuses cultivées pour l'alimentation dont il existe plusieurs espèces réparties dans des genres distincts. Le mot « dolique » vient du grec dolikhos qui signifie « allongé »[1]. Les doliques étaient cultivés en Europe pendant tout le Moyen Âge, avant d'être supplantés par les haricots d'Amérique au milieu du XVIe siècle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les doliques sont des légumineuses cultivées pour l'alimentation dont il existe plusieurs espèces réparties dans des genres distincts. Le mot « dolique » vient du grec dolikhos qui signifie « allongé ». Les doliques étaient cultivés en Europe pendant tout le Moyen Âge, avant d'être supplantés par les haricots d'Amérique au milieu du XVIe siècle.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français.
-Dolique - Vigna unguiculata ou Lablab purpureus[3] ;
-Dolique à œil noir - Vigna unguiculata[3] ;
-Dolique de Chine - Vigna unguiculata[3] ;
-Dolique à vache - Vigna unguiculata[3] ;
-Dolique d'Égypte - Lablab purpureus[3] ;
-Dolique du Soudan - Lablab purpureus[3] ;</t>
+Dolique - Vigna unguiculata ou Lablab purpureus ;
+Dolique à œil noir - Vigna unguiculata ;
+Dolique de Chine - Vigna unguiculata ;
+Dolique à vache - Vigna unguiculata ;
+Dolique d'Égypte - Lablab purpureus ;
+Dolique du Soudan - Lablab purpureus ;</t>
         </is>
       </c>
     </row>
